--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D4257-8E4E-40F1-BBAC-3F51F7A6CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="351">
   <si>
     <t>芯片脚号</t>
   </si>
@@ -319,9 +325,6 @@
   </si>
   <si>
     <t>TIM3_CH1：Motor_PU</t>
-  </si>
-  <si>
-    <t>Motor_PU3 ：TIM3_CH1</t>
   </si>
   <si>
     <t>32</t>
@@ -958,143 +961,343 @@
     <t>加热1_4</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>编码器B/TIM2_CH2：Motor_DR</t>
+  </si>
+  <si>
+    <t>编码器B/TIM2_CH2：Motor_DR5</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>Motor_DR1</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>加热1_3</t>
+  </si>
+  <si>
+    <t>IO_IN_2</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>编码器A/TIM4_CH1：Motor_PU</t>
+  </si>
+  <si>
+    <t>TIM4_CH1：Motor_PU6</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>编码器B/TIM4_CH2：Motor_DR</t>
+  </si>
+  <si>
+    <t>TIM4_CH2：Motor_DR6</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>CAN_RX</t>
+  </si>
+  <si>
+    <t>CAN_RX/PU12</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>CAN_TX</t>
+  </si>
+  <si>
+    <t>CAN_TX/DR12</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>加热1_2</t>
+  </si>
+  <si>
+    <t>IO_IN_1</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>加热1_1</t>
+  </si>
+  <si>
+    <t>PU10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>VSS_3</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>VDD_3</t>
+  </si>
+  <si>
+    <t>GE_motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C_rot_motor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_rot_motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C_ver_motor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_motor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O_hor_motor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO_hor_motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O_ver_motor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO_ver_motor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor_PU3 ：TIM3_CH1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE_start_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE_up_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E_down_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_rot_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_ver_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_start_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>C16 EXTI_7</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>编码器B/TIM2_CH2：Motor_DR</t>
-  </si>
-  <si>
-    <t>编码器B/TIM2_CH2：Motor_DR5</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>Motor_DR1</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>加热1_3</t>
-  </si>
-  <si>
-    <t>IO_IN_2</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>编码器A/TIM4_CH1：Motor_PU</t>
-  </si>
-  <si>
-    <t>TIM4_CH1：Motor_PU6</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>编码器B/TIM4_CH2：Motor_DR</t>
-  </si>
-  <si>
-    <t>TIM4_CH2：Motor_DR6</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>CAN_RX</t>
-  </si>
-  <si>
-    <t>CAN_RX/PU12</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>CAN_TX</t>
-  </si>
-  <si>
-    <t>CAN_TX/DR12</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>加热1_2</t>
-  </si>
-  <si>
-    <t>IO_IN_1</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>加热1_1</t>
-  </si>
-  <si>
-    <t>PU10</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>VSS_3</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>VDD_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOH_start_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOH_mid_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OH_end_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OV_start_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OV_glass_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,151 +1317,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1267,8 +1326,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,127 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,62 +1387,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1503,255 +1411,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,16 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1794,62 +1451,39 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2136,28 +1770,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +1854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +1869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2245,11 +1880,11 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -2262,7 +1897,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2273,11 +1908,11 @@
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -2290,7 +1925,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -2303,7 +1938,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2316,7 +1951,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +1964,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +1977,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +1990,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2003,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
@@ -2379,11 +2014,11 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
@@ -2398,7 +2033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -2409,11 +2044,11 @@
       <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
@@ -2428,20 +2063,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
@@ -2454,7 +2089,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>67</v>
       </c>
@@ -2469,7 +2104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +2117,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>73</v>
       </c>
@@ -2493,11 +2128,14 @@
       <c r="E24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
@@ -2508,11 +2146,14 @@
       <c r="E25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
@@ -2527,7 +2168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
         <v>84</v>
       </c>
@@ -2542,7 +2183,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
         <v>87</v>
       </c>
@@ -2555,7 +2196,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>89</v>
       </c>
@@ -2568,7 +2209,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
         <v>91</v>
       </c>
@@ -2583,7 +2224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
@@ -2591,14 +2232,14 @@
         <v>96</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>98</v>
       </c>
@@ -2609,286 +2250,316 @@
       <c r="E32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="F38" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>38</v>
@@ -2896,351 +2567,360 @@
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="10" t="s">
+      <c r="F66" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="7" t="s">
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="10" t="s">
+      <c r="F67" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F67" s="7" t="s">
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F71" s="7" t="s">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F72" s="7" t="s">
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>233</v>
+      <c r="D74" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>35</v>
@@ -3248,12 +2928,12 @@
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>38</v>
@@ -3261,353 +2941,377 @@
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="G78" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="7" t="s">
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="11" t="s">
+      <c r="F80" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="7" t="s">
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F81" s="7" t="s">
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B82" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F82" s="7" t="s">
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B83" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F83" s="7" t="s">
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B84" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F84" s="7" t="s">
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B85" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F85" s="7" t="s">
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B86" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="F86" s="7" t="s">
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B87" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="G87" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B88" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B90" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="6" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="F90" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="9" t="s">
+      <c r="G90" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B91" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="C91" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="6" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="F91" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B93" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B94" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B95" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="C98" s="10" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="C99" s="10" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="C100" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>35</v>
@@ -3615,12 +3319,12 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>38</v>
@@ -3629,42 +3333,36 @@
       <c r="F101" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D4257-8E4E-40F1-BBAC-3F51F7A6CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03320880-288B-4151-9DBA-48622DE42E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1778,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03320880-288B-4151-9DBA-48622DE42E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E2029-96E5-4756-8F80-05CE65F30051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="367">
   <si>
     <t>芯片脚号</t>
   </si>
@@ -598,9 +598,6 @@
   </si>
   <si>
     <t>62</t>
-  </si>
-  <si>
-    <t>PD15</t>
   </si>
   <si>
     <t>加热2_2</t>
@@ -1197,27 +1194,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>GE_up_sensor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E_down_sensor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GC_rot_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1290,6 +1266,172 @@
       </rPr>
       <t>OV_glass_sensor</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucker_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_spray_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_big_cyl_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_small_cyl_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C_claw_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOV_box_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ain_pump</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_sucker_pump</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_big_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GP_small_cyl </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_spray_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucker1_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucke2_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C_claw_cyl</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ian_out_cyl</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_in_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE_up_sensor</t>
+  </si>
+  <si>
+    <t>GE_down_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,6 +1529,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1417,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,6 +1624,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1789,7 +1952,7 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
@@ -2132,7 +2295,7 @@
         <v>76</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
@@ -2150,7 +2313,7 @@
         <v>80</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -2251,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -2272,7 +2435,7 @@
         <v>104</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -2316,7 +2479,7 @@
       <c r="E36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2331,7 +2494,7 @@
       <c r="E37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2363,8 +2526,11 @@
       <c r="E39" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>123</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2382,7 +2548,7 @@
         <v>126</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2400,7 +2566,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2418,7 +2584,7 @@
         <v>132</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -2436,7 +2602,7 @@
         <v>135</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -2454,7 +2620,7 @@
         <v>138</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -2472,7 +2638,7 @@
         <v>141</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
@@ -2490,7 +2656,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -2508,7 +2674,7 @@
         <v>147</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -2578,8 +2744,11 @@
       <c r="E52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>160</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2632,8 +2801,11 @@
       <c r="E56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>172</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -2647,8 +2819,11 @@
       <c r="E57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>175</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2662,8 +2837,11 @@
       <c r="E58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>178</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2677,8 +2855,11 @@
       <c r="E59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>181</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2692,8 +2873,11 @@
       <c r="E60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>184</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2707,8 +2891,11 @@
       <c r="E61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>187</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2722,205 +2909,211 @@
       <c r="E62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>190</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B63" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>192</v>
+      <c r="C63" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="G64" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>201</v>
-      </c>
       <c r="G65" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B68" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="G68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>35</v>
@@ -2930,10 +3123,10 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>38</v>
@@ -2943,375 +3136,393 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="G78" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>259</v>
+      <c r="G82" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>263</v>
+      <c r="G83" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B85" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F85" s="12" t="s">
-        <v>271</v>
+      <c r="G85" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B86" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>275</v>
+      <c r="G86" s="15" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>279</v>
-      </c>
       <c r="G87" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B88" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>283</v>
-      </c>
       <c r="G88" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="G90" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B91" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>297</v>
+      <c r="G92" s="15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B93" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="G93" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B94" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="G94" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F96" s="13" t="s">
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B97" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F97" s="13" t="s">
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B98" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="6" t="s">
+      <c r="C98" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B99" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F99" s="13" t="s">
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B100" s="6" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="6" t="s">
+      <c r="C100" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>35</v>
@@ -3319,12 +3530,12 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>38</v>

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E2029-96E5-4756-8F80-05CE65F30051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB0C67-5544-4228-B8D4-42227648E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="368">
   <si>
     <t>芯片脚号</t>
   </si>
@@ -867,9 +867,6 @@
     <t>加热1_9</t>
   </si>
   <si>
-    <t>C10 EXTI_1</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -988,9 +985,6 @@
     <t>加热1_3</t>
   </si>
   <si>
-    <t>IO_IN_2</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -1052,9 +1046,6 @@
   </si>
   <si>
     <t>加热1_2</t>
-  </si>
-  <si>
-    <t>IO_IN_1</t>
   </si>
   <si>
     <t>98</t>
@@ -1285,50 +1276,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P_spray_sensor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>P_big_cyl_sensor</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GP_small_cyl_sensor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C_claw_sensor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOV_box_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1432,6 +1385,33 @@
   </si>
   <si>
     <t>GE_down_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_IN_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_IN_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_claw_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOV_box_sensor</t>
+  </si>
+  <si>
+    <t>C8 EXTI_8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10 EXTI_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_spray_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,6 +1613,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1939,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G101"/>
+  <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,6 +2196,9 @@
       <c r="F18" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="G18" s="15" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
@@ -2295,7 +2284,7 @@
         <v>76</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
@@ -2313,7 +2302,7 @@
         <v>80</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -2414,10 +2403,10 @@
         <v>100</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -2435,7 +2424,7 @@
         <v>104</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -2530,7 +2519,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2544,11 +2533,11 @@
       <c r="E40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>126</v>
+      <c r="F40" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2566,7 +2555,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2584,7 +2573,7 @@
         <v>132</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
@@ -2602,7 +2591,7 @@
         <v>135</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -2620,7 +2609,7 @@
         <v>138</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -2638,7 +2627,7 @@
         <v>141</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
@@ -2656,7 +2645,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -2674,7 +2663,7 @@
         <v>147</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -2748,7 +2737,7 @@
         <v>160</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2805,7 +2794,7 @@
         <v>172</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -2823,7 +2812,7 @@
         <v>175</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2841,7 +2830,7 @@
         <v>178</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2859,7 +2848,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2877,7 +2866,7 @@
         <v>184</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2895,7 +2884,7 @@
         <v>187</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2913,7 +2902,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2921,7 +2910,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
@@ -2931,7 +2920,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -2949,7 +2938,7 @@
         <v>196</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
@@ -2967,7 +2956,7 @@
         <v>200</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
@@ -3015,7 +3004,7 @@
         <v>212</v>
       </c>
       <c r="G68" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.15">
@@ -3162,7 +3151,7 @@
         <v>242</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
@@ -3195,7 +3184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B81" s="6" t="s">
         <v>251</v>
       </c>
@@ -3210,7 +3199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>255</v>
       </c>
@@ -3224,11 +3213,11 @@
       <c r="F82" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G82" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B83" s="6" t="s">
         <v>259</v>
       </c>
@@ -3239,290 +3228,289 @@
       <c r="E83" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F84" s="13" t="s">
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="G85" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="G86" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="G87" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="G88" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="G90" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F91" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="C93" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B94" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="C94" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B94" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="C95" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G94" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B95" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B96" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B97" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B98" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B99" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B100" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>35</v>
@@ -3532,10 +3520,10 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>38</v>

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB0C67-5544-4228-B8D4-42227648E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9DB8B1-CC98-4E03-84FA-35F659000B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="370">
   <si>
     <t>芯片脚号</t>
   </si>
@@ -1327,19 +1327,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">GP_small_cyl </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GP_spray_cyl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GP_sucker1_cyl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GP_sucke2_cyl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1412,6 +1400,26 @@
   </si>
   <si>
     <t>GP_spray_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_out_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_small_cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_claw_Cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucker1_Cyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucker2_cyl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1927,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2197,7 +2205,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -2471,6 +2479,9 @@
       <c r="F36" s="19" t="s">
         <v>113</v>
       </c>
+      <c r="G36" s="15" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
@@ -2486,6 +2497,9 @@
       <c r="F37" s="19" t="s">
         <v>116</v>
       </c>
+      <c r="G37" s="15" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
@@ -2519,7 +2533,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2534,10 +2548,10 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2555,7 +2569,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2737,7 +2751,7 @@
         <v>160</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2812,7 +2826,7 @@
         <v>175</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2830,7 +2844,7 @@
         <v>178</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2848,7 +2862,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2866,7 +2880,7 @@
         <v>184</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2884,7 +2898,7 @@
         <v>187</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2902,7 +2916,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2920,7 +2934,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -3229,10 +3243,10 @@
         <v>261</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3389,7 +3403,7 @@
         <v>294</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -3484,10 +3498,10 @@
         <v>315</v>
       </c>
       <c r="F98" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G98" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9DB8B1-CC98-4E03-84FA-35F659000B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22365830-30E4-42B2-9ABE-F57DB3ADA97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,10 +1201,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>GOH_start_sensor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GOH_mid_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1264,23 +1260,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_big_cyl_sensor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GP_small_cyl_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1421,6 +1400,12 @@
   <si>
     <t>GP_sucker2_cyl</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_big_cyl_sensor</t>
+  </si>
+  <si>
+    <t>GOH_start_sensor</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2205,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -2480,7 +2465,7 @@
         <v>113</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -2498,7 +2483,7 @@
         <v>116</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -2533,7 +2518,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2548,10 +2533,10 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2569,7 +2554,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2659,7 +2644,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -2677,7 +2662,7 @@
         <v>147</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -2751,7 +2736,7 @@
         <v>160</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2808,7 +2793,7 @@
         <v>172</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -2826,7 +2811,7 @@
         <v>175</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2844,7 +2829,7 @@
         <v>178</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2862,7 +2847,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2880,7 +2865,7 @@
         <v>184</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2898,7 +2883,7 @@
         <v>187</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2916,7 +2901,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2924,7 +2909,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
@@ -2934,7 +2919,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -3228,7 +3213,7 @@
         <v>258</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
@@ -3243,10 +3228,10 @@
         <v>261</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3280,7 +3265,7 @@
         <v>269</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
@@ -3298,7 +3283,7 @@
         <v>273</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
@@ -3316,7 +3301,7 @@
         <v>277</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
@@ -3334,7 +3319,7 @@
         <v>281</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
@@ -3352,7 +3337,7 @@
         <v>339</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
@@ -3403,7 +3388,7 @@
         <v>294</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -3498,10 +3483,10 @@
         <v>315</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22365830-30E4-42B2-9ABE-F57DB3ADA97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4A3DF-D208-4FF0-BC52-ABA829194F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="371">
   <si>
     <t>芯片脚号</t>
   </si>
@@ -1406,6 +1406,9 @@
   </si>
   <si>
     <t>GOH_start_sensor</t>
+  </si>
+  <si>
+    <t>ITV0011电源开关</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1544,7 +1553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,6 +1621,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1934,7 +1946,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1962,11 +1974,11 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1980,8 +1992,11 @@
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -2039,7 +2054,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2082,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
@@ -2080,7 +2095,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2093,7 +2108,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
@@ -2106,7 +2121,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2119,7 +2134,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +2147,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
@@ -2145,7 +2160,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>47</v>
       </c>

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4A3DF-D208-4FF0-BC52-ABA829194F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D66778-21B4-4BB8-B9A4-781A28999211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,10 +1201,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>GOH_mid_sensor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>G</t>
     </r>
@@ -1239,23 +1235,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OV_glass_sensor</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GP_sucker_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1409,6 +1388,27 @@
   </si>
   <si>
     <t>ITV0011电源开关</t>
+  </si>
+  <si>
+    <t>GOV_glass_sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_big_cyl_sensor</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,6 +1944,7 @@
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
@@ -1993,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
@@ -2205,7 +2206,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -2480,7 +2481,7 @@
         <v>113</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -2498,7 +2499,7 @@
         <v>116</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -2533,7 +2534,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2548,10 +2549,10 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2569,7 +2570,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2659,7 +2660,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -2677,7 +2678,7 @@
         <v>147</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -2751,7 +2752,7 @@
         <v>160</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2808,7 +2809,7 @@
         <v>172</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
@@ -2826,7 +2827,7 @@
         <v>175</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2844,7 +2845,7 @@
         <v>178</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2862,7 +2863,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2880,7 +2881,7 @@
         <v>184</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2898,7 +2899,7 @@
         <v>187</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2916,7 +2917,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2924,7 +2925,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4" t="s">
@@ -2934,7 +2935,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -3228,7 +3229,7 @@
         <v>258</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
@@ -3243,10 +3244,10 @@
         <v>261</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3280,7 +3281,7 @@
         <v>269</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
@@ -3298,7 +3299,7 @@
         <v>273</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
@@ -3316,7 +3317,7 @@
         <v>277</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
@@ -3334,7 +3335,7 @@
         <v>281</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
@@ -3351,8 +3352,9 @@
       <c r="F89" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="G89" s="15" t="s">
-        <v>343</v>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
@@ -3403,7 +3405,7 @@
         <v>294</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -3498,10 +3500,10 @@
         <v>315</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D66778-21B4-4BB8-B9A4-781A28999211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4730D9D8-2BA1-4B4F-826D-B6E3AE6EDF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1394,20 +1394,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_big_cyl_sensor</t>
-    </r>
+    <t>GP_cyl_pos_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
       <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
@@ -3352,10 +3339,10 @@
       <c r="F89" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15" t="s">
+      <c r="G89" s="15" t="s">
         <v>370</v>
       </c>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">

--- a/引脚使用.xlsx
+++ b/引脚使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4730D9D8-2BA1-4B4F-826D-B6E3AE6EDF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5735FBC-5E5F-4592-AFED-CC1A6F537AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1264,23 +1264,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_sucker_pump</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GP_big_cyl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1396,6 +1379,9 @@
   <si>
     <t>GP_cyl_pos_sensor</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP_sucker_pump</t>
   </si>
 </sst>
 </file>
@@ -1919,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
@@ -1998,6 +1984,9 @@
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
@@ -2193,7 +2182,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -2467,9 +2456,7 @@
       <c r="F36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>346</v>
-      </c>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
@@ -2486,7 +2473,7 @@
         <v>116</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
@@ -2521,7 +2508,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
@@ -2536,10 +2523,10 @@
         <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -2557,7 +2544,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -2647,7 +2634,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -2739,7 +2726,7 @@
         <v>160</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -2814,7 +2801,7 @@
         <v>175</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
@@ -2832,7 +2819,7 @@
         <v>178</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
@@ -2850,7 +2837,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
@@ -2868,7 +2855,7 @@
         <v>184</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
@@ -2886,7 +2873,7 @@
         <v>187</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -2904,7 +2891,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2922,7 +2909,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.15">
@@ -3216,7 +3203,7 @@
         <v>258</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
@@ -3231,10 +3218,10 @@
         <v>261</v>
       </c>
       <c r="F83" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3268,7 +3255,7 @@
         <v>269</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
@@ -3340,7 +3327,7 @@
         <v>339</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H89" s="15"/>
     </row>
@@ -3392,7 +3379,7 @@
         <v>294</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G92" s="15"/>
     </row>
@@ -3487,10 +3474,10 @@
         <v>315</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
